--- a/Datos/Anuario2024/160203_ActividadCMJuventud.xlsx
+++ b/Datos/Anuario2024/160203_ActividadCMJuventud.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="120" r:id="rId1"/>
+    <sheet name="1" sheetId="119" r:id="rId2"/>
+    <sheet name="2" sheetId="94" r:id="rId3"/>
+    <sheet name="3" sheetId="92" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -51,81 +57,262 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+  <si>
+    <t>Benimaclet</t>
+  </si>
+  <si>
+    <t>Campanar</t>
+  </si>
+  <si>
+    <t>Malilla</t>
+  </si>
+  <si>
+    <t>Orriols</t>
+  </si>
+  <si>
+    <t>Russafa</t>
+  </si>
+  <si>
+    <t>Trinitat</t>
+  </si>
+  <si>
+    <t>Natzaret</t>
+  </si>
+  <si>
+    <t>Cultura</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Vivienda</t>
+  </si>
+  <si>
+    <t>Sant Isidre</t>
+  </si>
+  <si>
+    <t>Varones</t>
+  </si>
+  <si>
+    <t>Número de atenciones</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t>Tiempo Libre</t>
+  </si>
+  <si>
+    <t>Asociacionismo</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Patraix</t>
+  </si>
+  <si>
+    <t>De 26 a 30 años</t>
+  </si>
+  <si>
+    <t>De más de 30 años</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Por tipo de acceso al Centro</t>
+  </si>
+  <si>
+    <t>Según horario del Centro</t>
+  </si>
+  <si>
+    <t>Mañanas</t>
+  </si>
+  <si>
+    <t>Tardes</t>
+  </si>
+  <si>
+    <t>Por tipo de gestión</t>
+  </si>
+  <si>
+    <t>Empleo</t>
+  </si>
+  <si>
+    <t>Cesión espacio</t>
+  </si>
+  <si>
+    <t>Sala Estudio</t>
+  </si>
+  <si>
+    <t>Conexión Wifi</t>
+  </si>
+  <si>
+    <t>Sala Exposiciones</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>Animación</t>
+  </si>
+  <si>
+    <t>Otros Programas</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Juventud. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>Garantía Juvenil</t>
+  </si>
+  <si>
+    <t>Talleres Apunta't</t>
+  </si>
+  <si>
+    <t>Acceso público internet</t>
+  </si>
+  <si>
+    <t>Carnet joven</t>
+  </si>
+  <si>
+    <t>Grau Port</t>
+  </si>
+  <si>
+    <t>Actividades propias CMJ</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Ciutat Vella</t>
+  </si>
+  <si>
+    <t>Menores de 12 años</t>
+  </si>
+  <si>
+    <t>De 12 a 14 años</t>
+  </si>
+  <si>
+    <t>De 15 a 17 años</t>
+  </si>
+  <si>
+    <t>De 18 a 20 años</t>
+  </si>
+  <si>
+    <t>De 21 a 25 años</t>
+  </si>
+  <si>
+    <t>Malva-Rosa</t>
+  </si>
+  <si>
+    <t>CENTROS MUNICIPALES DE JUVENTUD</t>
+  </si>
+  <si>
+    <t>1. Personas usuarias de Centros Municipales de Juventud según edad y sexo. 2023</t>
+  </si>
+  <si>
+    <t>2. Consultas en Centros Municipales de Juventud según tema de consulta. 2023</t>
+  </si>
+  <si>
+    <t>3. Personas usuarias de Centros Municipales de Juventud según sexo y centro. 2023</t>
+  </si>
+  <si>
+    <t>Cabanyal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -167,79 +354,79 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -249,6 +436,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -317,13 +505,33 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF6600CC"/>
+      <color rgb="FFF2E5FF"/>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -564,8 +772,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5066,8 +5274,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5767,947 +5975,779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="45.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>CENTROS MUNICIPALES DE JUVENTUD</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>1. Personas usuarias de Centros Municipales de Juventud según edad y sexo. 2023</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="33" t="n"/>
-      <c r="B3" s="34" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="34" t="inlineStr">
-        <is>
-          <t>Varones</t>
-        </is>
-      </c>
-      <c r="D3" s="34" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="E3" s="34" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="n">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15">
         <v>86314</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="15">
         <v>38596</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="15">
         <v>47598</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="15">
         <v>120</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Menores de 12 años</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="31">
         <v>6791</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="31">
         <v>3627</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="31">
         <v>3164</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>De 12 a 14 años</t>
-        </is>
-      </c>
-      <c r="B6" s="19" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="19">
         <v>16270</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="19">
         <v>8072</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="19">
         <v>8192</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
-        <is>
-          <t>De 15 a 17 años</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="31">
         <v>15493</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="31">
         <v>8661</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="31">
         <v>6817</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>De 18 a 20 años</t>
-        </is>
-      </c>
-      <c r="B8" s="19" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="19">
         <v>9033</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="19">
         <v>4090</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="19">
         <v>4936</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
-        <is>
-          <t>De 21 a 25 años</t>
-        </is>
-      </c>
-      <c r="B9" s="31" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="31">
         <v>9885</v>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="31">
         <v>3839</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="31">
         <v>6007</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>De 26 a 30 años</t>
-        </is>
-      </c>
-      <c r="B10" s="19" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19">
         <v>8428</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="19">
         <v>3046</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="19">
         <v>5344</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="19">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="30" t="inlineStr">
-        <is>
-          <t>De más de 30 años</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="31">
         <v>20414</v>
       </c>
-      <c r="C11" s="31" t="n">
+      <c r="C11" s="31">
         <v>7261</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="31">
         <v>13138</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="31">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Juventud. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja50">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja50"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="19.140625" customWidth="1" min="2" max="2"/>
-    <col width="16.42578125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>2. Consultas en Centros Municipales de Juventud según tema de consulta. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="10" t="n"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="32" t="inlineStr">
-        <is>
-          <t>Consultas</t>
-        </is>
-      </c>
-      <c r="B3" s="34" t="inlineStr">
-        <is>
-          <t>Número de atenciones</t>
-        </is>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Por tipo de acceso al Centro</t>
-        </is>
-      </c>
-      <c r="B4" s="18" t="n"/>
-      <c r="C4" s="1" t="n"/>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="23" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="B5" s="25" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="25">
         <v>83134</v>
       </c>
-      <c r="C5" s="1" t="n"/>
+      <c r="C5" s="1"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="B6" s="18" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="17">
         <v>2128</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="23" t="inlineStr">
-        <is>
-          <t>Correo electrónico</t>
-        </is>
-      </c>
-      <c r="B7" s="25" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="25">
         <v>1081</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Según horario del Centro</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="n"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="23" t="inlineStr">
-        <is>
-          <t>Mañanas</t>
-        </is>
-      </c>
-      <c r="B9" s="25" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25">
         <v>35579</v>
       </c>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Tardes</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="18">
         <v>50764</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="26" t="inlineStr">
-        <is>
-          <t>Por tipo de gestión</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="n"/>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="27"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>Información</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="18">
         <v>13821</v>
       </c>
-      <c r="C12" s="1" t="n"/>
+      <c r="C12" s="1"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="28" t="inlineStr">
-        <is>
-          <t>Educación</t>
-        </is>
-      </c>
-      <c r="B13" s="29" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="29">
         <v>1142</v>
       </c>
-      <c r="C13" s="1" t="n"/>
+      <c r="C13" s="1"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>Vivienda</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="28" t="inlineStr">
-        <is>
-          <t>Tiempo Libre</t>
-        </is>
-      </c>
-      <c r="B15" s="29" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
         <v>4762</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13">
         <v>1705</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>Asociacionismo</t>
-        </is>
-      </c>
-      <c r="B17" s="29" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29">
         <v>1085</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>Empleo</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="18">
         <v>943</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="28" t="inlineStr">
-        <is>
-          <t>Salud</t>
-        </is>
-      </c>
-      <c r="B19" s="29" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="29">
         <v>83</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="14" t="inlineStr">
-        <is>
-          <t>Animación</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="n"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="13"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="28" t="inlineStr">
-        <is>
-          <t>Cesión espacio</t>
-        </is>
-      </c>
-      <c r="B21" s="29" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="29">
         <v>27329</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>Sala Estudio</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="13">
         <v>7601</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="28" t="inlineStr">
-        <is>
-          <t>Actividades propias CMJ</t>
-        </is>
-      </c>
-      <c r="B23" s="29" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="29">
         <v>34240</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="14" t="inlineStr">
-        <is>
-          <t>Otros Programas</t>
-        </is>
-      </c>
-      <c r="B24" s="13" t="n"/>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="13"/>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="28" t="inlineStr">
-        <is>
-          <t>Garantía Juvenil</t>
-        </is>
-      </c>
-      <c r="B25" s="29" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>Talleres Apunta't</t>
-        </is>
-      </c>
-      <c r="B26" s="13" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="13">
         <v>2935</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="28" t="inlineStr">
-        <is>
-          <t>Acceso público internet</t>
-        </is>
-      </c>
-      <c r="B27" s="29" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="29">
         <v>1761</v>
       </c>
-      <c r="C27" s="1" t="n"/>
+      <c r="C27" s="1"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>Conexión Wifi</t>
-        </is>
-      </c>
-      <c r="B28" s="13" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="13">
         <v>2578</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="28" t="inlineStr">
-        <is>
-          <t>Sala Exposiciones</t>
-        </is>
-      </c>
-      <c r="B29" s="29" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29">
         <v>642</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>Carnet joven</t>
-        </is>
-      </c>
-      <c r="B30" s="13" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="13">
         <v>2006</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Juventud. Ayuntamiento de València.</t>
-        </is>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="75" horizontalDpi="4294967293"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja49">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="19.140625" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.42578125" customWidth="1" min="3" max="4"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>3. Personas usuarias de Centros Municipales de Juventud según sexo y centro. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="10" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="21" t="n"/>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t>Mujeres</t>
-        </is>
-      </c>
-      <c r="D3" s="21" t="inlineStr">
-        <is>
-          <t>Hombres</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="n">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15">
         <v>86314</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="15">
         <v>47598</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="15">
         <v>38596</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="15">
         <v>120</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="23" t="inlineStr">
-        <is>
-          <t>Grau Port</t>
-        </is>
-      </c>
-      <c r="B5" s="24" t="n">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="24">
         <v>7518</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="22">
         <v>4031</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="22">
         <v>3487</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Benimaclet</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5">
         <v>6504</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="12">
         <v>3165</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="12">
         <v>3337</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="23" t="inlineStr">
-        <is>
-          <t>Campanar</t>
-        </is>
-      </c>
-      <c r="B7" s="24" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24">
         <v>4711</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="22">
         <v>2921</v>
       </c>
-      <c r="D7" s="22" t="n">
+      <c r="D7" s="22">
         <v>1789</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Malilla</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
         <v>3846</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="12">
         <v>1472</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="12">
         <v>2371</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="23" t="inlineStr">
-        <is>
-          <t>Malva-Rosa</t>
-        </is>
-      </c>
-      <c r="B9" s="24" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="24">
         <v>8133</v>
       </c>
-      <c r="C9" s="22" t="n">
+      <c r="C9" s="22">
         <v>4726</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="22">
         <v>3407</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Natzaret</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
         <v>6993</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="12">
         <v>4603</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="12">
         <v>2367</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="23" t="inlineStr">
-        <is>
-          <t>Orriols</t>
-        </is>
-      </c>
-      <c r="B11" s="24" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="24">
         <v>9360</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="22">
         <v>5800</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="22">
         <v>3558</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="n">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
         <v>7976</v>
       </c>
-      <c r="C12" s="19" t="n">
+      <c r="C12" s="12">
         <v>4398</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="12">
         <v>3502</v>
       </c>
-      <c r="E12" s="19" t="n">
+      <c r="E12" s="12">
         <v>76</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="23" t="inlineStr">
-        <is>
-          <t>Russafa</t>
-        </is>
-      </c>
-      <c r="B13" s="24" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="24">
         <v>5463</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="22">
         <v>3168</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="D13" s="22">
         <v>2291</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t>Sant Isidre</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
         <v>10105</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="12">
         <v>4850</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="12">
         <v>5255</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="23" t="inlineStr">
-        <is>
-          <t>Trinitat</t>
-        </is>
-      </c>
-      <c r="B15" s="24" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="24">
         <v>9638</v>
       </c>
-      <c r="C15" s="22" t="n">
+      <c r="C15" s="22">
         <v>4905</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="22">
         <v>4730</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>Cabanyal</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5">
         <v>3388</v>
       </c>
-      <c r="C16" s="19" t="n">
+      <c r="C16" s="12">
         <v>1964</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="12">
         <v>1420</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="23" t="inlineStr">
-        <is>
-          <t>Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B17" s="24" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="24">
         <v>2679</v>
       </c>
-      <c r="C17" s="22" t="n">
+      <c r="C17" s="22">
         <v>1595</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="22">
         <v>1082</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Juventud. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3"/>
     </row>
-    <row r="19">
-      <c r="B19" s="3" t="n"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>